--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/53_Konya_2022.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/53_Konya_2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1497173F-F214-4B77-9536-5755D729A518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DF62F28-03CF-4B1F-A407-ECFE4C6D4486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8544" yWindow="6144" windowWidth="6528" windowHeight="5280" tabRatio="659" xr2:uid="{0539BE2A-78B9-45DA-9D62-BE4CD11BB6C5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="659" xr2:uid="{7443AB36-BBCC-4EFE-B6B2-7E803DA52225}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK " sheetId="113" r:id="rId1"/>
@@ -980,13 +980,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{FA39CED7-0FD3-4F83-9286-9C0B2A2D66DF}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{25B1DAEB-B567-4598-995E-708BB13A01CC}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{2D7D0C6F-AAD0-4CAB-AFF6-ACEB8CAF83C4}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{5A166323-358E-4DA3-8A52-E7D6F38A835E}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{419A0DB9-FE68-44A8-BD7A-09692EA5B0C7}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{F8F86C30-3590-4F11-9CA2-649E65BFA17C}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{8D3B0DD7-B837-4FCF-A7BF-BA9D3EA4D166}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{0F36B9DE-A991-4AC0-B8D8-E09834E63138}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{69D62B00-DCAA-432D-B8FD-F299CECD6E0C}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{0A8DAA2A-3768-43C0-9282-FC7E232A70C5}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{8CEFBCDD-8F26-478F-980A-51326E75F148}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{F04C6FEE-122F-4E31-BD92-19EA67E24680}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{322F7A0F-BCCC-4C40-9829-A55CA7375F89}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{AB232BC3-42F0-4C25-B532-BBCE8CE79215}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1356,7 +1356,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D9579A-D10C-48D0-BAED-70910CA9A21F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9539651-D17C-48CF-A55B-C7F6CF3CD2D7}">
   <dimension ref="B2:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2666,17 +2666,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0DF4D46D-A027-460A-9E63-AE1042272AB1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D46A5F9C-BB09-4C85-AFE6-D4144BE40CFA}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{60D8D2F9-75A0-4DC6-8083-65954313E7DF}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E931A041-C3DA-4472-B2FB-27B0CAF23790}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DE6052B1-6488-4EE4-930F-76A208771812}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{928C52A0-AB5A-42B9-9EE5-BB2DF057CA47}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F7DEFE3E-5CED-4B68-8EA6-3A22005E8DE7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{826087A9-AD0B-44B2-A27A-E8E556E0B4CE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{40BF6FA2-3986-41A3-951F-AA9E4E13341B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{27F1A26A-C5B5-4DB4-AE78-3003116186DC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3638EBE8-3A6B-492A-B77E-97965BCADCF1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AB816615-57F2-4194-986C-A7723E80F51D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B82879C1-C5AA-46FC-A44C-A604B6BA966E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8D3B8EA6-09A5-41A4-B97B-FF5BC61A96D8}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7D1FC132-3285-48A6-87BF-686AC9D28D62}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CB5EF20A-2B5B-44CC-B900-28CFF8BDE623}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D7BDC7AB-9845-4C70-A123-B19BA7D39D74}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BBF79AFD-D988-48BB-B77C-6FC24C364538}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FC1C9894-EF97-4203-965A-35597901153D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{DD6D08F6-D7AA-49FC-8F93-FAAF6E6C8D3E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{D65ECB14-2FF3-4BE2-AACB-DF3EFE3A383F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FA51FA66-2033-4317-8EF9-37F78795C2B3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2689,7 +2689,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF18A867-0545-4155-A1D6-F676919CCAD5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{851946D0-B44A-4796-BC7A-499B21C4FB33}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3982,17 +3982,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4D6E717F-40C0-42AD-ACBD-B4F4000B4B3F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A5C8FFCB-936A-4AE4-A504-B54F320A7A42}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7D4BCE58-0AC0-4CED-B77C-0C30114C091F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D90E8CCA-40D7-4365-9009-CA2379C19465}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{36FB1222-D7E6-40D9-8711-9A6024E9B844}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7BBA6A30-7674-4C1B-BD78-4777A2D2E67B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{73777DCD-4C2B-4630-88A7-A53C2D91427B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EB63E9C9-5331-4856-8F36-94C0549A60DE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{002774F6-A5C5-4819-B141-30E2F5CEE5AE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{0F671AE0-F237-49EE-8756-DECA7A450E08}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8507438F-C3D1-4E6B-8BD2-482A4C4D499F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CBC37C3C-A04D-450E-942E-B786432B3666}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D24F1B30-AF50-4A09-A71E-DA1AC97640D6}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{24BED0AE-36F8-4A47-B467-9EF920F1DBF2}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DD4B7470-D63C-4697-B5A9-9B49CCEA7CBB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{46562CEB-7D1D-4AE1-8CAA-EE40C7F19360}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DEB573A6-7FB5-49FB-9D05-C5815070715A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{31D7C5D2-29DD-4F86-A4AE-757DF403F48D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{76DDEBA2-A1B4-4396-9E36-A1F14D1B2AA5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{922C3055-B110-40DE-8317-980D4DB24AD6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{C4C59B1B-0565-4FCC-AAC9-AD1175AF657D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8262EE0E-FB2C-46C2-B109-DD71EC29F7B6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4005,7 +4005,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4102D6AC-8178-4102-9C5E-97A3DF9EF9D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CF0183E-97E0-474E-B06D-18BA0065DE96}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5298,17 +5298,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4CF5BFF4-74C1-4780-971C-A17C11A10421}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DED69EC9-D7C4-4DED-A7D0-E0B3FE8020CD}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C3B2892F-128B-4A27-9209-2099298C4E5B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D0FB4768-476C-4CAA-9D38-C5F7836C8883}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C85FFE1A-8D92-48C1-8ED5-C2A51A9E2657}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{11492D93-C909-482B-ACB3-CC20F9489817}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{329CDA11-89A8-4F0D-8FDE-06534FD1E1F8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FCF0F103-9A28-43D9-8067-FB779F48F54C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{2AC539F9-754F-4402-A23A-382E108222C8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{49E5D349-5761-465E-A49A-A621EC1C2975}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D9EEF31E-09F8-4243-9488-D707899A5729}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{72374D83-E412-4923-B321-0A8D5CFFADB7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B76A92DD-A275-4AE3-96E7-53731C1EDA15}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4B135146-F256-4B17-AD93-CD7722D6C97D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A86F0F57-BC6D-4869-A637-A57A26ECF888}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EB897D6C-C397-4686-B063-4F7B1B5064AA}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4A9D1616-CFB1-474D-A9C2-346459F27F99}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E52DF24F-2C27-4EE4-B036-96AD59597C92}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1B614D08-480A-4AEE-A749-529D39ED75EE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{169FD85E-D5EF-446A-8496-BC86DBCB1C1E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{5BF660B0-FEEE-4143-8D65-8D7F9B5351C3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{86093E05-6DB4-42CF-8704-A04D30EFD3CE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5321,7 +5321,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19C540F3-951A-4076-B971-A33BF39C2BDB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BAC9F8E-25EB-4282-A71E-93B0A143A84A}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6610,17 +6610,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7C4BE014-C7AB-49D5-A1E7-5BD36A9606B4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{91CF4F3D-5215-425E-89A3-60F8D22260F7}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7E46D6A1-90C4-4794-9D2F-7D85028A8591}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{91940EF6-16AB-4B72-869D-BC70446F98F8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A203B09C-F34A-435A-8449-0D8C2431B54D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{636E72FD-78C7-41E7-B14D-499B0D9A137D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AC2E32E1-C58D-450B-85BC-9758A21D1AB8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B7F2A368-C229-43BC-8ACD-33238F0CD63A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{2A2B4118-5CF2-425F-AD9C-B71E2B76A0AC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{F8465AB4-B44B-448C-A206-C98A897997B0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2D5E5D8F-A984-43CE-BD0D-64BFC72CFE92}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CF7AAD8A-AB33-4C4A-B0A4-3998559830E7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{07E43DF1-2E78-45CD-A447-B7F7F2216150}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C18A302F-8D24-4ABE-8279-4E21EC4F131B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7297B406-EFB3-4DC2-8205-6267C6169C0C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FC674C1F-5639-4F2C-A0BD-E02F09790CDF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{32C4AF1C-617E-4B93-B17A-E6DC6A3CC467}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F7A5BE25-5C89-4D15-AC38-7F1C64F6B38B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{131C08FE-A856-4BD3-A42A-FA4428FADA12}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{4400D7D3-D3A1-4B9B-BCE8-45C135E0846F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{458C0BA2-7F61-4FB9-A61F-F8AE77CD2608}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2C13F9B8-4329-4E76-8370-738845419AC3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6633,7 +6633,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C86EB952-8E3C-497E-8744-000355C57C44}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E4524EC-7386-41DC-B6C6-031716B6C7A1}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7936,17 +7936,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4FE3B37D-6AAD-4A4F-98DB-0668DB374828}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{34C9D04B-A302-4AC4-A152-22C0AC1DD879}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1D51AFB5-A392-4F28-8693-DDCA5B1A2C6C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0BCED37D-981B-48A4-92CE-6404CD34993A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1420F41F-1BB0-40CE-9E39-960CDC1E56A0}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{81A20E1D-FCD7-4F33-8E77-9E5807098411}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7F45AC37-39BB-4DDB-A8DD-2F1E0805EFAA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CE843C77-4FE9-498F-9760-BD1B89650576}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{D3BD8088-AA2C-4A86-88D7-63098F8651CA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{11BCF2B5-F16E-46AA-8B1B-D85AD8AF2996}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BACFF7B3-E2B4-46FF-A7C7-706EEDCA08A7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BD142F17-9BB8-4DCB-B51E-BB5EF1FB768E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E64FEB02-D7B5-4795-B184-385BCA7B3EF4}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{58C6B8A5-BE7A-49CF-B243-2F9295985602}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{904F28CC-0D58-46EA-B93F-CDFF37314538}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CD314B7E-45B9-457D-8CD7-B666A31F0420}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E64C3949-98BD-4FB3-947A-C41E32BC8B08}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CD8D236B-0CD3-4E34-ADB6-94B83AC41CF3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A4640EEE-CF14-459A-8237-675E908D7E64}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{87A85DAE-F387-4846-8A94-99A180D67293}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{1367595C-6FBE-4B18-8215-6BDF72646415}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{021E61F8-2E63-4459-A745-DCD5E86EB77A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7959,7 +7959,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CFE0666-E209-4141-A675-6CD6B9ACA5D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12A798FB-8870-44DC-8973-C9DDC337A7A0}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9264,17 +9264,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7C5C361C-8D15-41AD-972F-5808B3362C87}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E2A2534A-A2AB-4A20-9E05-DABAAB83B74E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{85B64817-CD8D-469B-8F81-BDA839962D0C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9B234AE2-5D91-46B6-A2AE-A430FEB05DFC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B785E205-A822-4D8D-8CE2-099D33AE1B0C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{851D09B0-93E1-412B-8B24-73467AD5BF4C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FFDF6C3C-FB67-42B7-9A93-8AB28E3E0513}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{746ECF32-9791-4E04-B7E0-3F38D513A7BD}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{FABD24E1-B1CD-471B-9519-8E8C61662141}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{1ADCF489-887C-4748-8295-66641D35FB92}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{82320098-D5F7-4099-A724-E90F3122A296}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{84738DDD-A4F9-40B5-B032-E6D781736DC8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5BED369D-DD33-46DD-9DFE-7CA53ADEE28D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A962AAFE-029E-4404-8916-70273C33EA42}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{29FE5E0E-BE20-48F0-90F3-5E2BF83B5CFD}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C20CFF45-C13D-40EF-BFAD-D825C923D57C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{01820BF6-8EC3-4DE3-80F0-5E20A0976648}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DD434F25-0921-4DAE-B36E-D0BE96A1AC02}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9273C082-C0C9-40DE-85B0-1AF7D6627A80}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{37A85D7B-685C-4F80-8AD1-05C311C6F9A4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{29DC769E-4BE8-4258-A118-0CD7313A8772}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F01EBB2B-8AEC-4881-8472-CBA904C49AC4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9287,7 +9287,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F6B6407-3C9E-429B-8118-298860BBDB09}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA377A6-9888-43E8-BF74-05EB29FC358A}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10592,17 +10592,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6B7DD407-0B82-4CB6-A987-7B3EA419A743}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{17729A06-2227-4738-A8F9-4E25846415AF}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5746C7F9-F14B-4269-A5E8-C0C305A6D339}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DDBA7AA2-D513-4510-9A76-4175C3AA34F3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8C01B27A-7395-4B45-943C-EFB4C1662667}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D49B2822-B400-412F-94AF-6AFFE30FFA64}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4B6271FD-772C-4628-9321-02985A25D10E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4DCA8E87-4F4D-4DDE-A00A-FE2538027AEB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{D4D64789-FE49-49D4-AC20-5F77F02097B7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{93E3ADD7-4244-4AA3-ADFA-382B41097FAD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CC70D2F9-F500-4E4B-A1E5-63FB6FC46E73}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3C25E157-123B-4DD6-8DEC-83C4393D7B18}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1F5CE7A3-1C7E-4DCB-BEC0-821A886BADBD}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B1CCF520-615B-4528-97BF-AE12D2C2B0D1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DA5AAD8D-C638-4070-A987-CA102DAAAC8F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{22EA84F5-6923-45DA-9315-DF1B17CDC62E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{49F0562E-1DF6-4439-A838-45B8393884D1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A406429C-2A44-44AB-81FF-824D35C847A1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5B2FCF67-8D89-461B-BD19-7C39C5A2503B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{8C3DF405-560A-4FF2-A99B-6BB520511C14}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{C3EA30D5-136F-4F39-A34B-7370087FA92A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7225A2FD-C765-40E2-ADD3-13D2ED9E6887}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10615,7 +10615,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D493FA94-39B9-495C-87B5-F3AD900E8DE5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{815ED481-B2AB-433F-9AFE-3B9CFBF5487D}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11914,17 +11914,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0DAB918E-6278-466F-98D9-AF27943467ED}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1BA42229-54AC-49AB-8FB5-DAF2D36DDEAB}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{540208ED-9B1A-404C-A942-49FC445DFC09}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{61A7925D-6622-4011-9269-B6C426AD7A8F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{277FFD4B-5C3F-4462-8C3A-39209A210282}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7E5C9F3E-2626-4766-90BB-1C5B5B037C7E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{80E606EC-03C6-4F7A-9718-48136DA5120C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BC432A87-3FC4-4B30-8446-DA5CA7216009}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{2DF58DEE-F1B7-4ACA-9983-C300D74CEFA5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{2F1D19A0-968D-4773-A334-DF9E1FC23756}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{64F6EE11-A93C-42F4-9155-612980636F45}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{029DE6AC-49D0-453B-8538-46C4C16C799D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C371DF53-1AD1-490B-97D5-3FAF18F7E6A1}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{02D3A469-54C7-4D32-BC15-6523BBFBC34F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0F04C04D-905B-4FAF-9A83-1B3F227397CB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5EFC43D4-6156-4666-B22D-B935328007C8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{794C27D0-092E-4BA1-8EF1-240EF14B616D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1A92CFC6-6ADA-4D08-A002-E4BBFDEF1C57}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9C35C988-C5D1-429E-8470-5107C24B85A6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{53616837-761C-4B43-9438-55165D027DB4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{A7DF0C2B-EE1C-459A-89DD-4F16B676AB8C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E88C0522-8EE6-47E3-AF75-778635287C5D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11937,7 +11937,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5117271C-4B29-4EE8-BE56-17500591E396}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28042C45-52F6-4AB7-97D4-8F1AD8CCE78D}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13238,17 +13238,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{14B17AC9-9D02-4033-BBDA-1EBAF5EDBFB8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E5265141-3B1E-4F5A-BDC3-8B677C32E56A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{13D874E1-51B0-4E55-BDD4-477D1286C4DB}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A34A2A5F-6AB0-4D8F-BC57-117B2D25EB38}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BFF7D0AC-2D2C-4D7B-9332-D250554FEA10}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6E154E1B-BF08-43BC-804D-A915BD0E1367}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{42E78E6A-B9A4-463B-A190-0F22B88351DB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A817321B-F20D-496A-8592-D04C2F4F866B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{A41C59C4-88EC-4818-8039-37268C962AB9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{26B5093F-B7B2-414F-9AE7-87FAC57015A9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{504DB4DE-03F3-451F-88FD-E30774556193}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BB686BE5-5B4A-4EFD-8C78-27888B84A0C5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9B71CA15-B3D1-4352-86D9-EE74F6616B71}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A4B2A547-0416-4930-B025-BD4038791045}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E398DCB2-7BFB-49DD-AA02-7953AA83D7FD}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{950E119E-8775-4436-8962-78412631B206}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{73DF224A-E02C-453F-888A-AD7A617CC7F4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E4C8E01E-1B13-43D8-BB68-A0FAD7CC5889}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5C930DFB-E898-42AB-9F8A-9FE5756CEBC2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{C1DE6E32-7550-4487-B2B2-1FCC37655E49}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{8D4039FD-EE93-4660-B7D8-23076CAB5A44}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{51E4AC45-D913-45D0-88F3-AF2D6DB4BCA4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13261,7 +13261,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC68B821-92B1-4F37-BDF6-733EB91DF626}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC48C5F-11B2-47DA-88EB-CA13D1B1674E}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14560,17 +14560,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{36271255-A230-4483-B84A-31AC0D939407}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{132E5923-1203-44A9-89C0-A70C7E3E29C4}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B404EAD5-DADC-417E-A06E-05DA4B52F577}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D0C50CCE-DA49-43AE-9805-CFC7AE4EA5C0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0FA207CC-C5BA-4984-AF96-62CA58118794}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{52199D1C-B3B4-4836-B76E-2017613DC61E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A4E81767-C491-4DA4-B886-044DF9E6ACE2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F4EB92D4-6D1D-4A6A-BE11-855A8FD1010C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{D55EA86C-6095-4220-B272-5BACC4C78FCB}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{DDFD4D23-DFEF-4CC8-9D7E-2E2546B0A728}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9F005B6E-3B1A-4C6F-9FEC-DFAC953D0BE2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1E73E5C6-7DB8-4AB5-ADE2-E4DDA8BA408E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DC46A4D9-1596-479A-B4F3-E5B763DD4F48}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5F544023-2369-4037-8EE3-CAA669B8BCD7}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{473C174E-0151-4D54-B5C7-3E2EA9B283CB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{19956FC2-30DE-4259-B53E-F4FC91382944}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{17263064-C385-43A8-AED3-65A533F74F9B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{98ABDB60-ED95-4F7F-A9DF-0BCB2B581403}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{146C024D-1806-414B-9FBA-7CBBBE3FA073}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{78CADC8E-04EA-45CB-A0CD-B0766CA31F97}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{F7B0F2C2-9CE9-4242-B2B1-A39436A25C48}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E83292A1-D868-4370-A628-2BA276AD4233}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14583,7 +14583,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C543E137-82C7-4569-96C6-F4EB278F9060}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{854D6D8C-AA7C-4C80-B9C1-E440F550AE10}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15882,17 +15882,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D10AC677-25AC-45CA-804D-2D7A14142A0E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7FC48672-FCE0-4B69-A7B5-DED10E008B65}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{42D305D3-D316-4E58-B6FC-D30D2C23818D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BD6CDFE4-45CD-485F-9773-080267E4036F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{78046247-50A5-48F0-9E0C-DC4BDF75E1D4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0FABE96C-C95B-4EA6-9A74-9B7C928219AE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{764B4D5E-2396-4542-A98D-F60832E6D124}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{15492964-F9A4-40B4-BC40-A1D0DF8F14E9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{831E007A-4631-4096-A942-6246B93301AB}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{397A6D64-8C69-4799-9BD5-ED3B0522D1F4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E56C7EBD-F9B3-4702-A019-88720775812F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F5B0AD9B-1087-43E2-9D8E-BEF4A8690A87}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{92937766-B927-4F07-A737-2A952B68B677}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2CF9C868-94F7-40D0-8B7B-2ACC946B0A17}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D896C63B-3210-4515-A7E0-B14F85847F08}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DB25088A-B20B-4A82-B835-4A9063421E26}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{043CBD67-6B8F-4182-BCAF-9B3959E9AEA7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8C596737-D931-4AA9-A2F7-56F3D2FF2691}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{684B63E0-0291-455A-8F25-2B31EA770430}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{D03D2E69-AA4C-4170-B472-6C72E747AD20}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{5365B061-0659-4729-B01A-F7D6551C3AC0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7DF84A84-B481-4330-B436-370C14D58A20}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15905,7 +15905,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9448172-8300-48FA-AE77-4666F5627AE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15975F7A-A14E-40B6-9ED6-1DCD28E50E29}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -17204,17 +17204,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{68F6F2AF-C541-4398-B172-ACF5C77F41AF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FDA61256-6CF5-4B06-A4DE-024E444D7D56}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9EDA8116-CC37-46DC-A5A4-29526AFEE388}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B5814E0D-2EDE-4C4A-B29D-10594F1BA4F4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BA35882D-17E1-41A6-808C-4ED53785B571}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{ED77EE26-5DEC-4196-9E14-4F0EA992170A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{50311660-8AEF-4248-9372-F4FE52298B42}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{20223C91-6151-483F-9545-CA61CE262A52}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{707E19F0-4062-4699-8E45-5072066E99FB}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{6D07EA26-EC9D-4489-A304-5A9272F791AE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BC4EE245-7931-402F-B859-57C5C1094ADA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DC13820E-7DD0-4EA4-8427-BDACDE32C182}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1D685627-6072-44E2-AEE1-ADECB563948B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{AECE7641-3D8F-495B-BBA3-2486611267A1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{ABF7868F-6C0D-4926-9340-10A1F11D0C79}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{07F3EEA6-19D8-415B-B27A-04ED9368DAEE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7B459EE2-8368-41EF-8992-90CEC46FA840}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D60AA1D1-E3CF-44BF-AAB8-599BD340A78D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E5A860E4-D598-4291-B0B5-345FFD0D2411}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{3F3F4C24-B733-448D-B233-065811723003}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{D6EC8336-1393-4F46-BCD2-BBB7D6AB0C37}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EA7A4A9C-D4CF-4172-9F6C-D7CBDD14EB3F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
